--- a/data/trans_camb/P15A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.6139939759163225</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8629204090331456</v>
+        <v>0.8629204090331448</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.494698348837386</v>
+        <v>-1.319606035892188</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9478017260124023</v>
+        <v>-0.9855431370278991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.46463821819288</v>
+        <v>-1.361767991596468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.670721988278911</v>
+        <v>-1.605920606252454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8159331881852944</v>
+        <v>-0.7934961998716072</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07192749597722836</v>
+        <v>0.05333074171337535</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.084176992918204</v>
+        <v>-1.064549465614081</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5214865270403548</v>
+        <v>-0.5495099901091152</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.167827798158772</v>
+        <v>-0.1437540264644498</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.486530886097164</v>
+        <v>1.57658165063081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.990884043011472</v>
+        <v>1.854422643361208</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.33389271690101</v>
+        <v>1.481956211701026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.145388841641228</v>
+        <v>1.167175192907144</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.505549313035312</v>
+        <v>2.80279185420037</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.071464639991308</v>
+        <v>2.988504288538808</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9853613744933065</v>
+        <v>0.9384898126770532</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.672314804444347</v>
+        <v>1.782488515872442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.959330089922032</v>
+        <v>1.986375962203081</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2290489920342682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4318909450826925</v>
+        <v>0.4318909450826928</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.0279117778890364</v>
@@ -769,7 +769,7 @@
         <v>0.2038064544383632</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2864339976057283</v>
+        <v>0.2864339976057281</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4845980703055423</v>
+        <v>-0.4362876416212693</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3212982965369088</v>
+        <v>-0.329922139963414</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4885728801124718</v>
+        <v>-0.4559997574788405</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3937777443861548</v>
+        <v>-0.3849155308613427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2123955478097845</v>
+        <v>-0.2085739231357462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.003531845369300847</v>
+        <v>0.001480498257586941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2997938052404837</v>
+        <v>-0.302821398554684</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1491914490805662</v>
+        <v>-0.1705876725600854</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04763884377208446</v>
+        <v>-0.03851751340417306</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8547517987319115</v>
+        <v>0.9074528964356016</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.130238155333354</v>
+        <v>0.9967242828189687</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8339053830366328</v>
+        <v>0.8089817541767862</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4087283445242694</v>
+        <v>0.4165635540294524</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8916320098964123</v>
+        <v>1.000697490182711</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.120100288135663</v>
+        <v>1.088878245203941</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3986461435030804</v>
+        <v>0.3749647340370672</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6500859418547899</v>
+        <v>0.7223369307694338</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7834757283166601</v>
+        <v>0.7910830086056148</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.6222147683244629</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1606207359234793</v>
+        <v>-0.1606207359234796</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.7486177983785314</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.964183760544899</v>
+        <v>-3.005362199892892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.336290229560718</v>
+        <v>-3.42260089615375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.502466397377063</v>
+        <v>-3.414393768900666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9657384202229792</v>
+        <v>-0.9693721973333661</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.64411655889326</v>
+        <v>-1.576978101428602</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.11999294398201</v>
+        <v>-1.084471754774637</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.585325277365369</v>
+        <v>-1.590554368295506</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.135841068785458</v>
+        <v>-2.225703083446608</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.98844538739102</v>
+        <v>-1.950421282764522</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3377953366529639</v>
+        <v>-0.269374901249317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8195892348257506</v>
+        <v>-0.80676840142296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.9263501006786232</v>
+        <v>-0.9178377898478952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.085092629638158</v>
+        <v>1.170368793579345</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2813347930419096</v>
+        <v>0.3778012711869043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7888114218050803</v>
+        <v>0.8060400293890723</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09000885115234343</v>
+        <v>0.03495143465216994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6086261702226884</v>
+        <v>-0.6040193986896325</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.4140597479757239</v>
+        <v>-0.3519783936910186</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2819077223450493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.07277266328394455</v>
+        <v>-0.0727726632839447</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2163255040623837</v>
@@ -983,7 +983,7 @@
         <v>-0.3938079818829429</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3443347941714986</v>
+        <v>-0.3443347941714988</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5337911056420975</v>
+        <v>-0.5471328595242894</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6124711686155906</v>
+        <v>-0.5988725140016162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6366753146935474</v>
+        <v>-0.6308658023182157</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3611066987163364</v>
+        <v>-0.3478475243246251</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5812149255433212</v>
+        <v>-0.5754097274859481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4072790632434524</v>
+        <v>-0.3909077683084021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4014308993450048</v>
+        <v>-0.4049992107835481</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5353628508239161</v>
+        <v>-0.5459263700158069</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5038141344610216</v>
+        <v>-0.4952694248075595</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.08203435647534053</v>
+        <v>-0.07973486906105003</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2089793363504426</v>
+        <v>-0.1901514204847004</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2296112192352962</v>
+        <v>-0.2101258821705381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7033977776836783</v>
+        <v>0.7194241643736253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1835202475421251</v>
+        <v>0.2326509418545238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4805240225118596</v>
+        <v>0.4789362825328271</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03132561049058129</v>
+        <v>0.01133234719899201</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1861700671452619</v>
+        <v>-0.1833816223270913</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1307209102287497</v>
+        <v>-0.09816596165073707</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.067996386434189</v>
+        <v>-3.40671662498502</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.530165672193475</v>
+        <v>-3.570839065039899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.747815470645312</v>
+        <v>-4.221414089309929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.92522804821298</v>
+        <v>-1.860304454677487</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.555644960065525</v>
+        <v>-2.336732745452219</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.111770775098741</v>
+        <v>-2.931344195185914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.798246544681716</v>
+        <v>-1.868418564099804</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.287714393298663</v>
+        <v>-2.308470194154315</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.940424846933269</v>
+        <v>-2.847114153881207</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.440311047796122</v>
+        <v>1.382350608433746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8377516423779399</v>
+        <v>0.7733208203116295</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1734753551693373</v>
+        <v>0.1328758827743977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.012061262923578</v>
+        <v>3.116838015243509</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.646439645059172</v>
+        <v>1.73058630347532</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6133039593341043</v>
+        <v>0.5802587869070418</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.454235100266366</v>
+        <v>1.490831786965599</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7154753789591584</v>
+        <v>0.8358040253840299</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.2190280064902228</v>
+        <v>-0.05285193872742359</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3611482361327301</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.5176259745409406</v>
+        <v>-0.5176259745409407</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1724463743768097</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6654926024440503</v>
+        <v>-0.6861162909293677</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7167595400228131</v>
+        <v>-0.7300273995185654</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7881918112185438</v>
+        <v>-0.8002032394027674</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5245547239915271</v>
+        <v>-0.5517016098543016</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6220807740410336</v>
+        <v>-0.574737761797311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6739983713258759</v>
+        <v>-0.6838253257559774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4428164503786568</v>
+        <v>-0.4679745606975712</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5754029817627877</v>
+        <v>-0.5740923066487268</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6802331984456088</v>
+        <v>-0.6694746734362241</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6316934359831856</v>
+        <v>0.7654259526728445</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4774962471521941</v>
+        <v>0.4299809687952446</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2340052444493055</v>
+        <v>0.1528982715607174</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.788996459970429</v>
+        <v>1.834646028998223</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.046835655204172</v>
+        <v>1.433896500948166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5082628709167961</v>
+        <v>0.5050416272966071</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.602614397159047</v>
+        <v>0.6269433210381867</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3316266901292745</v>
+        <v>0.3580866334661683</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.06756895205947747</v>
+        <v>0.008807564272673023</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.175897894560655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.454205161866022</v>
+        <v>-1.454205161866021</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.009381699396525389</v>
@@ -1297,7 +1297,7 @@
         <v>-0.2984248828313132</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.1267970714040803</v>
+        <v>-0.1267970714040809</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.4388806010903468</v>
@@ -1306,7 +1306,7 @@
         <v>-0.7307511632808499</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.7779705837450628</v>
+        <v>-0.7779705837450624</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.860180016403289</v>
+        <v>-1.881440468672374</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.164658578323265</v>
+        <v>-2.032535431401698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.368440995019146</v>
+        <v>-2.288080638862814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8169131041450476</v>
+        <v>-0.8718703016505773</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.02788906288899</v>
+        <v>-1.031870503577893</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8200286497808107</v>
+        <v>-0.8549887830988846</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.009969784945095</v>
+        <v>-1.041679538231879</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.288538396659832</v>
+        <v>-1.390654755920181</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.340707513900372</v>
+        <v>-1.337925581934628</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.06408813432447889</v>
+        <v>-0.1462074101949694</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3319534227741938</v>
+        <v>-0.3354866885540872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.6115870989557639</v>
+        <v>-0.6088688829626104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.715346915233801</v>
+        <v>0.7432824224794565</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4712968117468792</v>
+        <v>0.5409040241357723</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6939107260673536</v>
+        <v>0.5803065830689544</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1923144010977324</v>
+        <v>0.1381462880606765</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1257003369382128</v>
+        <v>-0.1048644834904748</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.2161479778663839</v>
+        <v>-0.1743774982960886</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3130468539848583</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3871376529173793</v>
+        <v>-0.3871376529173792</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.003379601139276428</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1075025996226942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.0456765356533223</v>
+        <v>-0.04567653565332255</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1346846503783579</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2242545345944761</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2387453348724815</v>
+        <v>-0.2387453348724814</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.431624518374655</v>
+        <v>-0.4250240947647995</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4881605367237795</v>
+        <v>-0.4763808592314143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5521628610971955</v>
+        <v>-0.5497981795692279</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2684930273045955</v>
+        <v>-0.2755140708409842</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3429366028799761</v>
+        <v>-0.3404310166817183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2572611043490787</v>
+        <v>-0.2710339036590654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2823666150527728</v>
+        <v>-0.2924564827496431</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.360075519307887</v>
+        <v>-0.3812654808116879</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3698545600927425</v>
+        <v>-0.3749598066621426</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01792667760827119</v>
+        <v>-0.03746156307849569</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.0909146508936361</v>
+        <v>-0.08993532573654198</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1771910447935163</v>
+        <v>-0.1824413942343142</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.300252800899539</v>
+        <v>0.3002977626454759</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2030968175605522</v>
+        <v>0.2283908353305918</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3000840735338723</v>
+        <v>0.2457369504454836</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06744891219681018</v>
+        <v>0.05167043650616827</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.03904704538507767</v>
+        <v>-0.03760346367832929</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.07216651151780211</v>
+        <v>-0.06026619600580713</v>
       </c>
     </row>
     <row r="28">
